--- a/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
@@ -506,9 +506,6 @@
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Actividad que permite evaluar los conocimientos de los estudiantes acerca del tema Los fundamentos de genética.</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -748,6 +745,9 @@
   </si>
   <si>
     <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos acerca del tema Los fundamentos de genética</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1691,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P3" s="48" t="s">
         <v>19</v>
@@ -1700,16 +1700,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="U3" s="23" t="s">
         <v>216</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
         <v>98</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>69</v>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>19</v>
@@ -1761,16 +1761,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>39</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>19</v>
@@ -1822,16 +1822,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>215</v>
-      </c>
       <c r="T5" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1881,16 +1881,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
         <v>44</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>19</v>
@@ -1940,16 +1940,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="27" t="s">
-        <v>215</v>
-      </c>
       <c r="T7" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U7" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2021,10 +2021,10 @@
         <v>103</v>
       </c>
       <c r="E9" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>199</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>200</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="30">
@@ -2034,7 +2034,7 @@
         <v>94</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>69</v>
@@ -2047,7 +2047,7 @@
         <v>45</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P9" s="46" t="s">
         <v>19</v>
@@ -2056,16 +2056,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="S9" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="S9" s="27" t="s">
-        <v>215</v>
-      </c>
       <c r="T9" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>98</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>69</v>
@@ -2115,16 +2115,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="T10" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="T10" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2205,7 +2205,7 @@
         <v>114</v>
       </c>
       <c r="H12" s="30">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>94</v>
@@ -2262,7 +2262,7 @@
         <v>115</v>
       </c>
       <c r="H13" s="30">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>98</v>
@@ -2319,13 +2319,13 @@
         <v>117</v>
       </c>
       <c r="H14" s="30">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>94</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>70</v>
@@ -2376,7 +2376,7 @@
         <v>118</v>
       </c>
       <c r="H15" s="30">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>98</v>
@@ -2430,10 +2430,10 @@
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H16" s="30">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="I16" s="30" t="s">
         <v>98</v>
@@ -2485,16 +2485,16 @@
       <c r="E17" s="29"/>
       <c r="F17" s="39"/>
       <c r="G17" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H17" s="30">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>94</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>69</v>
@@ -2507,23 +2507,23 @@
         <v>35</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P17" s="46"/>
       <c r="Q17" s="13">
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="S17" s="11" t="s">
-        <v>215</v>
-      </c>
       <c r="T17" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>123</v>
       </c>
       <c r="H18" s="30">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I18" s="30" t="s">
         <v>98</v>
@@ -2606,7 +2606,7 @@
         <v>129</v>
       </c>
       <c r="H19" s="30">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>94</v>
@@ -2665,7 +2665,7 @@
         <v>131</v>
       </c>
       <c r="H20" s="30">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I20" s="30" t="s">
         <v>98</v>
@@ -2722,13 +2722,13 @@
         <v>147</v>
       </c>
       <c r="H21" s="30">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="I21" s="30" t="s">
         <v>94</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>70</v>
@@ -2779,7 +2779,7 @@
         <v>135</v>
       </c>
       <c r="H22" s="30">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>98</v>
@@ -2833,16 +2833,16 @@
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H23" s="30">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="I23" s="30" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K23" s="45" t="s">
         <v>69</v>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P23" s="46" t="s">
         <v>20</v>
@@ -2864,16 +2864,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="S23" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="S23" s="28" t="s">
+      <c r="T23" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="U23" s="37" t="s">
         <v>163</v>
-      </c>
-      <c r="T23" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="U23" s="37" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2892,16 +2892,16 @@
       <c r="E24" s="29"/>
       <c r="F24" s="39"/>
       <c r="G24" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H24" s="30">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="I24" s="30" t="s">
         <v>98</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K24" s="45" t="s">
         <v>69</v>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P24" s="46" t="s">
         <v>20</v>
@@ -2923,16 +2923,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="S24" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="S24" s="28" t="s">
+      <c r="T24" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="U24" s="37" t="s">
         <v>163</v>
-      </c>
-      <c r="T24" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="U24" s="37" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2954,7 +2954,7 @@
         <v>138</v>
       </c>
       <c r="H25" s="30">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>98</v>
@@ -3009,7 +3009,7 @@
         <v>142</v>
       </c>
       <c r="H26" s="30">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="I26" s="30" t="s">
         <v>98</v>
@@ -3064,7 +3064,7 @@
         <v>144</v>
       </c>
       <c r="H27" s="30">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="I27" s="30" t="s">
         <v>98</v>
@@ -3119,7 +3119,7 @@
         <v>146</v>
       </c>
       <c r="H28" s="30">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="I28" s="30" t="s">
         <v>98</v>
@@ -3174,7 +3174,7 @@
         <v>158</v>
       </c>
       <c r="H29" s="30">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="I29" s="30" t="s">
         <v>98</v>
@@ -3219,13 +3219,13 @@
         <v>160</v>
       </c>
       <c r="H30" s="30">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I30" s="30" t="s">
         <v>98</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="K30" s="45" t="s">
         <v>69</v>
@@ -3245,20 +3245,25 @@
         <v>6</v>
       </c>
       <c r="R30" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S30" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="S30" s="11" t="s">
+      <c r="T30" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="T30" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3274,11 +3279,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4044,7 +4044,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="19"/>
     </row>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -4110,10 +4110,10 @@
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4134,10 +4134,10 @@
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4158,10 +4158,10 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4182,10 +4182,10 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4206,10 +4206,10 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4230,10 +4230,10 @@
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4254,10 +4254,10 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4280,10 +4280,10 @@
         <v>128</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4306,10 +4306,10 @@
         <v>128</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4332,10 +4332,10 @@
         <v>128</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4358,10 +4358,10 @@
         <v>128</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4382,10 +4382,10 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="235">
   <si>
     <t>Asignatura</t>
   </si>
@@ -660,9 +660,6 @@
     <t xml:space="preserve">Interactivo que explica qué es la genética (primera imagen del menú) y por qué es importante (segunda imagen del menú). Se debe hablar del ADN. Al final de la exposición un recurso M que relaciona términos </t>
   </si>
   <si>
-    <t>La priemera imagen de menú lleva a la explicación de qué es un gen (un fragmento de ADN que tiene las instrucciones para hacer una proteína); aquí también se explica que los genes determinan en parte cómo somos. La segunda imgen lleva a la explicación de donde se ubican los genes (locus y cromosomas), y otra imagen de menú habla de los alelos. Dentro de esta última hay varias pantallas en donde se explica qué son alelos, qué es dominancia, recesividad y codominancia, y como se representan los genes (letras mayúsculas y minúsculas segúan sean dominantes o recesivos, y letras con superíndices para codominantes). Al final de la exposición hay un recurso M1B para relacionar términos con su significado (gen, alelo, codominancia, etc).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hacer una animación explicando qué son los cromosomas. Es algo similar a lo que se ve en el video que se eencuentra en la siguiente página: http://www.areaciencias.com/biologia/cromosomas.html  Hay más indicaciones en el cuaderno de estudio; preguntar por eso. </t>
   </si>
   <si>
@@ -748,6 +745,39 @@
   </si>
   <si>
     <t>Evalúa tus conocimientos acerca del tema Los fundamentos de genética</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: los genes</t>
+  </si>
+  <si>
+    <t>La primera imagen de menú lleva a la explicación de qué es un gen (un fragmento de ADN que tiene las instrucciones para hacer una proteína); aquí también se explica que los genes determinan en parte cómo somos. La segunda imgen lleva a la explicación de donde se ubican los genes (locus y cromosomas), y otra imagen de menú habla de los alelos. Dentro de esta última hay varias pantallas en donde se explica qué son alelos, qué es dominancia, recesividad y codominancia, y como se representan los genes (letras mayúsculas y minúsculas segúan sean dominantes o recesivos, y letras con superíndices para codominantes). Al final de la exposición hay un recurso M1B para relacionar términos con su significado (gen, alelo, codominancia, etc).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preguntar acerca de qué es un gen, en donde se ubican, qué son alelos, dominancia y recesividad, homo y heterocigosis, codominancia y representación de genes </t>
+  </si>
+  <si>
+    <t>Actividad acerca de genes y alelos</t>
+  </si>
+  <si>
+    <t>Actividad sobre cromosomas y aberraciones cromosómicas</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: los cromosomas</t>
+  </si>
+  <si>
+    <t>El número cromosómico y las aberraciones en los cromosomas</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la herencia y el ambiente</t>
+  </si>
+  <si>
+    <t>Actividad acerca de la relación entre herencia y medio ambiente</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
   </si>
 </sst>
 </file>
@@ -1531,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,16 +1730,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="U3" s="23" t="s">
         <v>215</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,7 +1797,7 @@
         <v>162</v>
       </c>
       <c r="T4" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>163</v>
@@ -1813,7 +1843,7 @@
         <v>39</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>19</v>
@@ -1822,19 +1852,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="T5" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>67</v>
       </c>
@@ -1852,7 +1882,7 @@
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="42" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -1861,7 +1891,7 @@
         <v>98</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="K6" s="45" t="s">
         <v>69</v>
@@ -1870,10 +1900,12 @@
         <v>32</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="P6" s="46" t="s">
         <v>19</v>
       </c>
@@ -1887,7 +1919,7 @@
         <v>162</v>
       </c>
       <c r="T6" s="47" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>163</v>
@@ -1904,52 +1936,52 @@
         <v>92</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="29"/>
+        <v>99</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="F7" s="39"/>
       <c r="G7" s="42" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K7" s="45" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>196</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="13">
         <v>6</v>
       </c>
-      <c r="R7" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>216</v>
+      <c r="R7" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T7" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1968,43 +2000,47 @@
       <c r="E8" s="29"/>
       <c r="F8" s="39"/>
       <c r="G8" s="42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H8" s="30">
         <v>6</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="N8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="P8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="49" t="s">
-        <v>105</v>
+      <c r="Q8" s="49">
+        <v>6</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2020,52 +2056,46 @@
       <c r="D9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="42"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="42" t="s">
+        <v>109</v>
+      </c>
       <c r="H9" s="30">
         <v>7</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="49">
-        <v>6</v>
+      <c r="Q9" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2082,49 +2112,53 @@
         <v>103</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="39"/>
+        <v>197</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>198</v>
+      </c>
       <c r="G10" s="42" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>69</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="P10" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="49">
         <v>6</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="T10" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>163</v>
+      <c r="R10" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2138,50 +2172,52 @@
         <v>92</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="42" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="49" t="s">
-        <v>105</v>
+      <c r="Q11" s="49">
+        <v>6</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="S11" s="27" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="T11" s="27" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2195,53 +2231,55 @@
         <v>92</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="42" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="S12" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="13">
+        <v>6</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>67</v>
       </c>
@@ -2255,26 +2293,26 @@
         <v>110</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H13" s="30">
         <v>11</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>70</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -2282,23 +2320,23 @@
       <c r="P13" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="50" t="s">
+      <c r="Q13" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="R13" s="28" t="s">
+      <c r="R13" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="S13" s="28" t="s">
+      <c r="S13" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="T13" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="U13" s="37" t="s">
+      <c r="T13" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="U13" s="36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>67</v>
       </c>
@@ -2316,7 +2354,7 @@
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H14" s="30">
         <v>12</v>
@@ -2325,13 +2363,13 @@
         <v>94</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -2339,23 +2377,23 @@
       <c r="P14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="50" t="s">
+      <c r="Q14" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="R14" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="S14" s="28" t="s">
+      <c r="S14" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="T14" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="U14" s="37" t="s">
+      <c r="T14" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="U14" s="36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>67</v>
       </c>
@@ -2373,7 +2411,7 @@
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
@@ -2382,7 +2420,7 @@
         <v>98</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>70</v>
@@ -2406,13 +2444,13 @@
         <v>107</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="U15" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>67</v>
       </c>
@@ -2426,26 +2464,26 @@
         <v>110</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="42" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>70</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -2453,19 +2491,19 @@
       <c r="P16" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U16" s="1" t="s">
+      <c r="T16" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="U16" s="37" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2480,50 +2518,50 @@
         <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="F17" s="39"/>
       <c r="G17" s="42" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="9"/>
-      <c r="N17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="13">
-        <v>6</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>216</v>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="U17" s="37" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2537,14 +2575,14 @@
         <v>92</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="42" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -2553,7 +2591,7 @@
         <v>98</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>70</v>
@@ -2574,13 +2612,13 @@
         <v>106</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2594,16 +2632,12 @@
         <v>92</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>128</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="42" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
@@ -2612,34 +2646,38 @@
         <v>94</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="N19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="P19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="R19" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="S19" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="T19" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="U19" s="37" t="s">
-        <v>125</v>
+      <c r="Q19" s="13">
+        <v>6</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2653,16 +2691,14 @@
         <v>92</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>128</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F20" s="39"/>
       <c r="G20" s="42" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
@@ -2671,7 +2707,7 @@
         <v>98</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>70</v>
@@ -2685,19 +2721,19 @@
       <c r="P20" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="50" t="s">
+      <c r="Q20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R20" s="28" t="s">
+      <c r="R20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="S20" s="28" t="s">
+      <c r="S20" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="T20" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="U20" s="37" t="s">
+      <c r="T20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2712,50 +2748,52 @@
         <v>92</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="42" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="13" t="s">
-        <v>105</v>
+      <c r="Q21" s="13">
+        <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2772,26 +2810,28 @@
         <v>126</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="39"/>
+        <v>127</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>128</v>
+      </c>
       <c r="G22" s="42" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>70</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -2809,7 +2849,7 @@
         <v>93</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="U22" s="37" t="s">
         <v>125</v>
@@ -2829,11 +2869,13 @@
         <v>126</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="39"/>
+        <v>127</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>128</v>
+      </c>
       <c r="G23" s="42" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
@@ -2842,38 +2884,34 @@
         <v>98</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="8" t="s">
-        <v>211</v>
-      </c>
+      <c r="O23" s="9"/>
       <c r="P23" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="50">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="Q23" s="50" t="s">
+        <v>105</v>
       </c>
       <c r="R23" s="28" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="S23" s="28" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="U23" s="37" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2887,52 +2925,50 @@
         <v>92</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>133</v>
+      </c>
       <c r="F24" s="39"/>
       <c r="G24" s="42" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K24" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="O24" s="9"/>
       <c r="P24" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="50">
-        <v>6</v>
-      </c>
-      <c r="R24" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="S24" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="T24" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="U24" s="37" t="s">
-        <v>163</v>
+        <v>19</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2946,12 +2982,14 @@
         <v>92</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="F25" s="39"/>
       <c r="G25" s="42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
@@ -2960,7 +2998,7 @@
         <v>98</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K25" s="45" t="s">
         <v>70</v>
@@ -2984,7 +3022,7 @@
         <v>93</v>
       </c>
       <c r="T25" s="28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U25" s="37" t="s">
         <v>125</v>
@@ -3001,12 +3039,14 @@
         <v>92</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="F26" s="39"/>
       <c r="G26" s="42" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
@@ -3015,34 +3055,38 @@
         <v>98</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="P26" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="50" t="s">
-        <v>105</v>
+        <v>20</v>
+      </c>
+      <c r="Q26" s="50">
+        <v>6</v>
       </c>
       <c r="R26" s="28" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3061,7 +3105,7 @@
       <c r="E27" s="29"/>
       <c r="F27" s="39"/>
       <c r="G27" s="42" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
@@ -3070,34 +3114,38 @@
         <v>98</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="9"/>
+      <c r="M27" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="O27" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="P27" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="50" t="s">
-        <v>105</v>
+        <v>20</v>
+      </c>
+      <c r="Q27" s="50">
+        <v>6</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3116,7 +3164,7 @@
       <c r="E28" s="29"/>
       <c r="F28" s="39"/>
       <c r="G28" s="42" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3125,7 +3173,7 @@
         <v>98</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K28" s="45" t="s">
         <v>70</v>
@@ -3146,13 +3194,13 @@
         <v>106</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3166,12 +3214,12 @@
         <v>92</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="39"/>
       <c r="G29" s="42" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
@@ -3180,13 +3228,13 @@
         <v>98</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -3194,11 +3242,21 @@
       <c r="P29" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="15"/>
+      <c r="Q29" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="S29" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="T29" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="U29" s="37" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
@@ -3211,12 +3269,12 @@
         <v>92</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="39"/>
       <c r="G30" s="42" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
@@ -3225,35 +3283,190 @@
         <v>98</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="R30" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="S30" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="U30" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="30">
+        <v>29</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="T31" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="U31" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="30">
+        <v>30</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="15"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="30">
+        <v>31</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="13">
         <v>6</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R33" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="S30" s="11" t="s">
+      <c r="S33" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="T30" s="47" t="s">
+      <c r="T33" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3289,37 +3502,37 @@
           <x14:formula1>
             <xm:f>DATOS!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A30</xm:sqref>
+          <xm:sqref>A3:A33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K30</xm:sqref>
+          <xm:sqref>K3:K33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L30</xm:sqref>
+          <xm:sqref>L3:L33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P30</xm:sqref>
+          <xm:sqref>P3:P33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M30</xm:sqref>
+          <xm:sqref>M3:M33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N30</xm:sqref>
+          <xm:sqref>N3:N33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="237">
   <si>
     <t>Asignatura</t>
   </si>
@@ -314,9 +314,6 @@
     <t xml:space="preserve">Consolidación </t>
   </si>
   <si>
-    <t>Relaciona términos de genética con su definición</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -392,9 +389,6 @@
     <t>La herencia y el ambiente</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: La herencia y el ambiente</t>
-  </si>
-  <si>
     <t>Relaciona la herencia y el medio ambiente</t>
   </si>
   <si>
@@ -413,9 +407,6 @@
     <t>Las leyes de Mendel</t>
   </si>
   <si>
-    <t>Animación que explica las tres leyes enunciadas por Mendel, que son la base de la genética moderna</t>
-  </si>
-  <si>
     <t>Resuelve problemas de herencia mendeliana</t>
   </si>
   <si>
@@ -438,12 +429,6 @@
   </si>
   <si>
     <t>Competencias: ejercicio práctico acerca de las leyes de Mendel</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: el material genético</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: las características de los cromosomas</t>
   </si>
   <si>
     <t>Competencias: comprobación de las leyes de Mendel</t>
@@ -684,9 +669,6 @@
     <t>Refuerza tu aprendizaje: el ciclo y la reproducción celular</t>
   </si>
   <si>
-    <t>Genotipo y fenotipo</t>
-  </si>
-  <si>
     <t>Interactivo que expone los conceptos de genotipo y fenotipo</t>
   </si>
   <si>
@@ -696,21 +678,9 @@
     <t>Interactivo que explica los árboles genealógicos</t>
   </si>
   <si>
-    <t>Competencias: La genética</t>
-  </si>
-  <si>
-    <t>Las preguntas se refieren a los diversos temas estudados en el capítulo. Genes, cromosomas, división celular, leyes de Mendel…</t>
-  </si>
-  <si>
-    <t>Actividad para evaluar la comprensión de las leyes de Mendel, a la luz de conocimientos modernos de genética</t>
-  </si>
-  <si>
     <t>Se deben hacer preguntas que evalúen la comprensión de los postualdos de Mendel, pero relacionándolos con conceptos modernos de genética. Por ejemplo, al preguntar por la ley de la segregación, poner entre las opciones de respuesta que los caracteres se segregan de forma equitativa en los gametos debido a que los cromosomas homólogos se reparten durante la gametogénesis. La idea es que los estudiantes expliquen los hallazgos de Mendel con información que él no tuvo: genes, alelos, cromosomas, meiosis, ADN...</t>
   </si>
   <si>
-    <t>Actividad para evaluar la comprensión de los fundamentos de la genética</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -726,9 +696,6 @@
     <t>Recurso F7B-01</t>
   </si>
   <si>
-    <t>Recurso F12-01</t>
-  </si>
-  <si>
     <t>Recurso F13-01</t>
   </si>
   <si>
@@ -756,9 +723,6 @@
     <t xml:space="preserve">Preguntar acerca de qué es un gen, en donde se ubican, qué son alelos, dominancia y recesividad, homo y heterocigosis, codominancia y representación de genes </t>
   </si>
   <si>
-    <t>Actividad acerca de genes y alelos</t>
-  </si>
-  <si>
     <t>Actividad sobre cromosomas y aberraciones cromosómicas</t>
   </si>
   <si>
@@ -774,10 +738,52 @@
     <t>Refuerza tu aprendizaje: la herencia y el ambiente</t>
   </si>
   <si>
-    <t>Actividad acerca de la relación entre herencia y medio ambiente</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Banco de actividades: Fundamentos de genética</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la genética</t>
+  </si>
+  <si>
+    <t>El material genético</t>
+  </si>
+  <si>
+    <t>Los genes y los alelos</t>
+  </si>
+  <si>
+    <t>Interactivo para estudiar los genes y los alelos</t>
+  </si>
+  <si>
+    <t>Actividad acerca de los genes y los alelos</t>
+  </si>
+  <si>
+    <t>Las características de los cromosomas</t>
+  </si>
+  <si>
+    <t>¿Cómo se relaciona la herencia con el medio ambiente?</t>
+  </si>
+  <si>
+    <t>El fenotipo</t>
+  </si>
+  <si>
+    <t>El genotipo y el fenotipo</t>
+  </si>
+  <si>
+    <t>Actividad acerca de la relación entre la herencia y el medio ambiente</t>
+  </si>
+  <si>
+    <t>Las leyes de Mendel y la genética moderna</t>
+  </si>
+  <si>
+    <t>Actividad para evaluar la comprensión de las leyes de Mendel a la luz de los conocimientos modernos de genética</t>
+  </si>
+  <si>
+    <t>Animación que explica las tres leyes enunciadas por Gregor Mendel</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema Fundamentos de genética</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1559,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1563,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1727,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P3" s="48" t="s">
         <v>19</v>
@@ -1730,16 +1736,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1760,16 +1766,16 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="42" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="H4" s="30">
         <v>2</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>69</v>
@@ -1782,7 +1788,7 @@
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>19</v>
@@ -1791,16 +1797,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="T4" s="47" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1814,14 +1820,14 @@
         <v>92</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>100</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="42" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1830,7 +1836,7 @@
         <v>94</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>69</v>
@@ -1843,7 +1849,7 @@
         <v>39</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>19</v>
@@ -1852,19 +1858,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="T5" s="47" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>67</v>
       </c>
@@ -1875,10 +1881,10 @@
         <v>92</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>101</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="42" t="s">
@@ -1888,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="K6" s="45" t="s">
         <v>69</v>
@@ -1900,12 +1906,10 @@
         <v>32</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="O6" s="9"/>
       <c r="P6" s="46" t="s">
         <v>19</v>
       </c>
@@ -1913,19 +1917,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="T6" s="47" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>67</v>
       </c>
@@ -1936,23 +1940,23 @@
         <v>92</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="42" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="K7" s="45" t="s">
         <v>69</v>
@@ -1961,10 +1965,12 @@
         <v>32</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="O7" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="P7" s="46" t="s">
         <v>19</v>
       </c>
@@ -1972,16 +1978,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="T7" s="47" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1995,12 +2001,12 @@
         <v>92</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="39"/>
       <c r="G8" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8" s="30">
         <v>6</v>
@@ -2009,10 +2015,10 @@
         <v>94</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>30</v>
@@ -2022,25 +2028,25 @@
         <v>44</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="49">
-        <v>6</v>
+      <c r="Q8" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2054,21 +2060,21 @@
         <v>92</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="39"/>
       <c r="G9" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>70</v>
@@ -2083,19 +2089,19 @@
         <v>19</v>
       </c>
       <c r="Q9" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="S9" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="T9" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="U9" s="36" t="s">
         <v>107</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2109,16 +2115,16 @@
         <v>92</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2127,7 +2133,7 @@
         <v>94</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>69</v>
@@ -2140,7 +2146,7 @@
         <v>45</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>19</v>
@@ -2149,16 +2155,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="U10" s="36" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2172,23 +2178,25 @@
         <v>92</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="39"/>
+        <v>192</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>193</v>
+      </c>
       <c r="G11" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>69</v>
@@ -2197,27 +2205,27 @@
         <v>32</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="8"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="49">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="13">
         <v>6</v>
       </c>
-      <c r="R11" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="T11" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>163</v>
+      <c r="R11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="T11" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2231,23 +2239,23 @@
         <v>92</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="42" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K12" s="45" t="s">
         <v>69</v>
@@ -2256,27 +2264,27 @@
         <v>32</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="49">
         <v>6</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="T12" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>163</v>
+      <c r="R12" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2290,14 +2298,14 @@
         <v>92</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>110</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>111</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="30">
         <v>11</v>
@@ -2306,7 +2314,7 @@
         <v>94</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>70</v>
@@ -2321,19 +2329,19 @@
         <v>19</v>
       </c>
       <c r="Q13" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="S13" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="T13" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="U13" s="36" t="s">
         <v>107</v>
-      </c>
-      <c r="T13" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2347,14 +2355,14 @@
         <v>92</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="30">
         <v>12</v>
@@ -2363,7 +2371,7 @@
         <v>94</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>70</v>
@@ -2378,19 +2386,19 @@
         <v>19</v>
       </c>
       <c r="Q14" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="27" t="s">
+      <c r="S14" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="T14" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="U14" s="36" t="s">
         <v>107</v>
-      </c>
-      <c r="T14" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="U14" s="36" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2404,23 +2412,23 @@
         <v>92</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>70</v>
@@ -2435,19 +2443,19 @@
         <v>19</v>
       </c>
       <c r="Q15" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="S15" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="S15" s="28" t="s">
+      <c r="T15" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="U15" s="37" t="s">
         <v>107</v>
-      </c>
-      <c r="T15" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="U15" s="37" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2461,14 +2469,14 @@
         <v>92</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
@@ -2477,7 +2485,7 @@
         <v>94</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>70</v>
@@ -2492,19 +2500,19 @@
         <v>19</v>
       </c>
       <c r="Q16" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="R16" s="28" t="s">
+      <c r="S16" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="T16" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="U16" s="37" t="s">
         <v>107</v>
-      </c>
-      <c r="T16" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="U16" s="37" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2518,23 +2526,23 @@
         <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>70</v>
@@ -2549,19 +2557,19 @@
         <v>19</v>
       </c>
       <c r="Q17" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="R17" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="28" t="s">
+      <c r="S17" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="S17" s="28" t="s">
+      <c r="T17" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="U17" s="37" t="s">
         <v>107</v>
-      </c>
-      <c r="T17" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="U17" s="37" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2575,23 +2583,23 @@
         <v>92</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="42" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>70</v>
@@ -2606,19 +2614,19 @@
         <v>19</v>
       </c>
       <c r="Q18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2632,12 +2640,14 @@
         <v>92</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="29"/>
+        <v>121</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>230</v>
+      </c>
       <c r="F19" s="39"/>
       <c r="G19" s="42" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
@@ -2646,7 +2656,7 @@
         <v>94</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>69</v>
@@ -2659,7 +2669,7 @@
         <v>35</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P19" s="46" t="s">
         <v>19</v>
@@ -2668,16 +2678,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2691,23 +2701,23 @@
         <v>92</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>70</v>
@@ -2722,19 +2732,19 @@
         <v>19</v>
       </c>
       <c r="Q20" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>93</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2748,23 +2758,23 @@
         <v>92</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>96</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="42" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>69</v>
@@ -2784,16 +2794,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2807,16 +2817,16 @@
         <v>92</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="G22" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
@@ -2825,7 +2835,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>70</v>
@@ -2840,19 +2850,19 @@
         <v>19</v>
       </c>
       <c r="Q22" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="S22" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2866,25 +2876,25 @@
         <v>92</v>
       </c>
       <c r="D23" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="39" t="s">
+      <c r="G23" s="42" t="s">
         <v>128</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>131</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K23" s="45" t="s">
         <v>70</v>
@@ -2899,19 +2909,19 @@
         <v>19</v>
       </c>
       <c r="Q23" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="R23" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="S23" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U23" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2925,14 +2935,14 @@
         <v>92</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="42" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
@@ -2941,7 +2951,7 @@
         <v>94</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K24" s="45" t="s">
         <v>70</v>
@@ -2956,19 +2966,19 @@
         <v>19</v>
       </c>
       <c r="Q24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>93</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2982,50 +2992,54 @@
         <v>92</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="42" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="K25" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="P25" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="50" t="s">
-        <v>105</v>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="50">
+        <v>6</v>
       </c>
       <c r="R25" s="28" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="S25" s="28" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="T25" s="28" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="U25" s="37" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3039,54 +3053,50 @@
         <v>92</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="42" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="8" t="s">
-        <v>210</v>
-      </c>
+      <c r="O26" s="9"/>
       <c r="P26" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="50">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="Q26" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="R26" s="28" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3100,52 +3110,48 @@
         <v>92</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="39"/>
       <c r="G27" s="42" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="O27" s="9"/>
       <c r="P27" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="50">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="Q27" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3159,21 +3165,21 @@
         <v>92</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="39"/>
       <c r="G28" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K28" s="45" t="s">
         <v>70</v>
@@ -3188,19 +3194,19 @@
         <v>19</v>
       </c>
       <c r="Q28" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="R28" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="R28" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="S28" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3214,21 +3220,21 @@
         <v>92</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="39"/>
       <c r="G29" s="42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K29" s="45" t="s">
         <v>70</v>
@@ -3243,19 +3249,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="R29" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="R29" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="S29" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U29" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3269,21 +3275,21 @@
         <v>92</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="39"/>
       <c r="G30" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K30" s="45" t="s">
         <v>70</v>
@@ -3298,19 +3304,19 @@
         <v>19</v>
       </c>
       <c r="Q30" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="R30" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="R30" s="28" t="s">
+      <c r="S30" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="S30" s="28" t="s">
-        <v>93</v>
-      </c>
       <c r="T30" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="U30" s="37" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3324,27 +3330,27 @@
         <v>92</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="39"/>
       <c r="G31" s="42" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -3352,21 +3358,11 @@
       <c r="P31" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="R31" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="S31" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="T31" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="U31" s="37" t="s">
-        <v>108</v>
-      </c>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="15"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
@@ -3379,39 +3375,51 @@
         <v>92</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="39"/>
       <c r="G32" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="K32" s="45" t="s">
         <v>69</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="15"/>
+      <c r="Q32" s="13">
+        <v>6</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="T32" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
@@ -3424,21 +3432,21 @@
         <v>92</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="39"/>
       <c r="G33" s="42" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="H33" s="30">
         <v>31</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="K33" s="45" t="s">
         <v>69</v>
@@ -3447,36 +3455,31 @@
         <v>32</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="13">
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="T33" s="47" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3492,6 +3495,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4257,7 +4265,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H3" s="19"/>
     </row>
@@ -4272,14 +4280,14 @@
         <v>92</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -4294,14 +4302,14 @@
         <v>92</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -4316,17 +4324,17 @@
         <v>92</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4340,17 +4348,17 @@
         <v>92</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4364,17 +4372,17 @@
         <v>92</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4388,17 +4396,17 @@
         <v>92</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4412,17 +4420,17 @@
         <v>92</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4436,17 +4444,17 @@
         <v>92</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4460,17 +4468,17 @@
         <v>92</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4484,19 +4492,19 @@
         <v>92</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>128</v>
-      </c>
       <c r="G13" s="17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4510,19 +4518,19 @@
         <v>92</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>128</v>
-      </c>
       <c r="G14" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4536,19 +4544,19 @@
         <v>92</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>128</v>
-      </c>
       <c r="G15" s="17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4562,19 +4570,19 @@
         <v>92</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>128</v>
-      </c>
       <c r="G16" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4588,17 +4596,17 @@
         <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
@@ -898,7 +898,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -940,21 +940,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1114,12 +1099,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1143,8 +1154,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,22 +1167,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1193,97 +1204,100 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1559,7 +1573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1569,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,8 +1601,8 @@
     <col min="10" max="10" width="129.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="25" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14" style="25" customWidth="1"/>
     <col min="15" max="15" width="90.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" style="24" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="10" customWidth="1"/>
@@ -1627,26 +1641,26 @@
       <c r="I1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="58" t="s">
         <v>71</v>
       </c>
       <c r="L1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="56"/>
+      <c r="N1" s="64"/>
       <c r="O1" s="52" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="56" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="52" t="s">
@@ -1672,18 +1686,18 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="55"/>
       <c r="M2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="O2" s="53"/>
       <c r="P2" s="53"/>
-      <c r="Q2" s="58"/>
+      <c r="Q2" s="57"/>
       <c r="R2" s="53"/>
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
@@ -1722,10 +1736,10 @@
       <c r="L3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>36</v>
       </c>
+      <c r="N3" s="20"/>
       <c r="O3" s="20" t="s">
         <v>189</v>
       </c>
@@ -1783,10 +1797,10 @@
       <c r="L4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="9"/>
       <c r="O4" s="9" t="s">
         <v>188</v>
       </c>
@@ -1844,10 +1858,10 @@
       <c r="L5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
         <v>214</v>
       </c>
@@ -1905,10 +1919,10 @@
       <c r="L6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="9"/>
+      <c r="N6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="46" t="s">
         <v>19</v>
@@ -1964,10 +1978,10 @@
       <c r="L7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="9"/>
       <c r="O7" s="9" t="s">
         <v>215</v>
       </c>
@@ -2023,10 +2037,10 @@
       <c r="L8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="N8" s="9"/>
       <c r="O8" s="8" t="s">
         <v>190</v>
       </c>
@@ -2141,10 +2155,10 @@
       <c r="L10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="N10" s="9"/>
       <c r="O10" s="8" t="s">
         <v>195</v>
       </c>
@@ -2204,10 +2218,10 @@
       <c r="L11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="46" t="s">
         <v>20</v>
@@ -2263,10 +2277,10 @@
       <c r="L12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="9"/>
       <c r="O12" s="8"/>
       <c r="P12" s="46" t="s">
         <v>19</v>
@@ -2664,10 +2678,10 @@
       <c r="L19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9" t="s">
+      <c r="M19" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="N19" s="9"/>
       <c r="O19" s="8" t="s">
         <v>199</v>
       </c>
@@ -2782,10 +2796,10 @@
       <c r="L21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="46" t="s">
         <v>19</v>
@@ -3016,10 +3030,10 @@
       <c r="L25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="9"/>
+      <c r="N25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="9"/>
       <c r="O25" s="8" t="s">
         <v>201</v>
       </c>
@@ -3397,10 +3411,10 @@
       <c r="L32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="46" t="s">
         <v>19</v>
@@ -3454,10 +3468,10 @@
       <c r="L33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="9"/>
+      <c r="N33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="46" t="s">
         <v>20</v>
@@ -3480,6 +3494,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3495,11 +3514,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3534,13 +3548,13 @@
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M33</xm:sqref>
+          <xm:sqref>N3:N33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N33</xm:sqref>
+          <xm:sqref>M3:M33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4232,7 +4246,7 @@
       <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>90</v>
       </c>
       <c r="H1" s="52" t="s">
@@ -4246,8 +4260,8 @@
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">

--- a/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
@@ -482,9 +482,6 @@
     <t>Fin de unidad</t>
   </si>
   <si>
-    <t>Mapa conceptual</t>
-  </si>
-  <si>
     <t>Mapa conceptual del tema Fundamentos de genética</t>
   </si>
   <si>
@@ -784,6 +781,9 @@
   </si>
   <si>
     <t>Motor que incluye preguntas de respuesta abierta del tema Fundamentos de genética</t>
+  </si>
+  <si>
+    <t>Mapa conceptual</t>
   </si>
 </sst>
 </file>
@@ -1273,6 +1273,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1292,12 +1298,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,26 +1641,26 @@
       <c r="I1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="60" t="s">
         <v>71</v>
       </c>
       <c r="L1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="64"/>
+      <c r="N1" s="57"/>
       <c r="O1" s="52" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="58" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="52" t="s">
@@ -1686,8 +1686,8 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="55"/>
       <c r="M2" s="18" t="s">
         <v>87</v>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="O2" s="53"/>
       <c r="P2" s="53"/>
-      <c r="Q2" s="57"/>
+      <c r="Q2" s="59"/>
       <c r="R2" s="53"/>
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P3" s="48" t="s">
         <v>19</v>
@@ -1750,16 +1750,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="U3" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="30">
         <v>2</v>
@@ -1789,7 +1789,7 @@
         <v>97</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>69</v>
@@ -1802,7 +1802,7 @@
         <v>62</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>19</v>
@@ -1811,16 +1811,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1850,7 +1850,7 @@
         <v>94</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>69</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>19</v>
@@ -1872,16 +1872,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="T5" s="47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -1931,16 +1931,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
@@ -1970,7 +1970,7 @@
         <v>97</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K7" s="45" t="s">
         <v>69</v>
@@ -1983,7 +1983,7 @@
         <v>62</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>19</v>
@@ -1992,16 +1992,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="T7" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>19</v>
@@ -2132,13 +2132,13 @@
         <v>102</v>
       </c>
       <c r="E10" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>193</v>
-      </c>
       <c r="G10" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2147,7 +2147,7 @@
         <v>94</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>69</v>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>19</v>
@@ -2169,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="S10" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="S10" s="27" t="s">
-        <v>203</v>
-      </c>
       <c r="T10" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U10" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2195,13 +2195,13 @@
         <v>102</v>
       </c>
       <c r="E11" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>193</v>
-      </c>
       <c r="G11" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
@@ -2210,7 +2210,7 @@
         <v>97</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>69</v>
@@ -2230,16 +2230,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="T11" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T11" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
@@ -2269,7 +2269,7 @@
         <v>97</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K12" s="45" t="s">
         <v>69</v>
@@ -2289,16 +2289,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="S12" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="T12" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="U12" s="36" t="s">
         <v>157</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
         <v>94</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>70</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -2657,11 +2657,11 @@
         <v>121</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
@@ -2670,7 +2670,7 @@
         <v>94</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>69</v>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P19" s="46" t="s">
         <v>19</v>
@@ -2692,16 +2692,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="S19" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="T19" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2718,11 +2718,11 @@
         <v>121</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
@@ -2788,7 +2788,7 @@
         <v>97</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>69</v>
@@ -2808,16 +2808,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>70</v>
@@ -2965,7 +2965,7 @@
         <v>94</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K24" s="45" t="s">
         <v>70</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
@@ -3022,7 +3022,7 @@
         <v>97</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K25" s="45" t="s">
         <v>69</v>
@@ -3035,7 +3035,7 @@
         <v>23</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P25" s="46" t="s">
         <v>20</v>
@@ -3044,16 +3044,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="S25" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="S25" s="28" t="s">
+      <c r="T25" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="U25" s="37" t="s">
         <v>157</v>
-      </c>
-      <c r="T25" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="U25" s="37" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3349,7 +3349,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="39"/>
       <c r="G31" s="42" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
@@ -3358,7 +3358,7 @@
         <v>97</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K31" s="45" t="s">
         <v>69</v>
@@ -3394,7 +3394,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="39"/>
       <c r="G32" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
@@ -3403,7 +3403,7 @@
         <v>97</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K32" s="45" t="s">
         <v>69</v>
@@ -3423,16 +3423,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S32" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="T32" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T32" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
       <c r="E33" s="29"/>
       <c r="F33" s="39"/>
       <c r="G33" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H33" s="30">
         <v>31</v>
@@ -3460,7 +3460,7 @@
         <v>97</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K33" s="45" t="s">
         <v>69</v>
@@ -3480,16 +3480,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S33" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="S33" s="11" t="s">
+      <c r="T33" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T33" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4246,7 +4246,7 @@
       <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>90</v>
       </c>
       <c r="H1" s="52" t="s">
@@ -4260,8 +4260,8 @@
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -4279,7 +4279,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3" s="19"/>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -4345,10 +4345,10 @@
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4369,10 +4369,10 @@
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4393,10 +4393,10 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4417,10 +4417,10 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4441,10 +4441,10 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4465,10 +4465,10 @@
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4489,10 +4489,10 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4515,10 +4515,10 @@
         <v>126</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4541,10 +4541,10 @@
         <v>126</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4567,10 +4567,10 @@
         <v>126</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4593,10 +4593,10 @@
         <v>126</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4617,10 +4617,10 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11760"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="236">
   <si>
     <t>Asignatura</t>
   </si>
@@ -417,9 +422,6 @@
   </si>
   <si>
     <t>La herencia en la especie humana y los árboles genealógicos</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: las leyes de Mendel</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: Las leyes de Mendel</t>
@@ -663,9 +665,6 @@
     <t>Interactivo que trata la relación entre meiosis y reproducción sexual</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: el ciclo y la reproducción celular</t>
-  </si>
-  <si>
     <t>Interactivo que expone los conceptos de genotipo y fenotipo</t>
   </si>
   <si>
@@ -711,9 +710,6 @@
     <t>Evalúa tus conocimientos acerca del tema Los fundamentos de genética</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: los genes</t>
-  </si>
-  <si>
     <t>La primera imagen de menú lleva a la explicación de qué es un gen (un fragmento de ADN que tiene las instrucciones para hacer una proteína); aquí también se explica que los genes determinan en parte cómo somos. La segunda imgen lleva a la explicación de donde se ubican los genes (locus y cromosomas), y otra imagen de menú habla de los alelos. Dentro de esta última hay varias pantallas en donde se explica qué son alelos, qué es dominancia, recesividad y codominancia, y como se representan los genes (letras mayúsculas y minúsculas segúan sean dominantes o recesivos, y letras con superíndices para codominantes). Al final de la exposición hay un recurso M1B para relacionar términos con su significado (gen, alelo, codominancia, etc).</t>
   </si>
   <si>
@@ -723,27 +719,18 @@
     <t>Actividad sobre cromosomas y aberraciones cromosómicas</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: los cromosomas</t>
-  </si>
-  <si>
     <t>El número cromosómico y las aberraciones en los cromosomas</t>
   </si>
   <si>
     <t>Recurso M101A-03</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: la herencia y el ambiente</t>
-  </si>
-  <si>
     <t>Recurso M101AP-01</t>
   </si>
   <si>
     <t>Banco de actividades: Fundamentos de genética</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: la genética</t>
-  </si>
-  <si>
     <t>El material genético</t>
   </si>
   <si>
@@ -784,6 +771,21 @@
   </si>
   <si>
     <t>Mapa conceptual</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La genética</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los genes</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los cromosomas</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El ciclo y la reproducción celular</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La herencia y el ambiente</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1583,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1743,7 @@
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P3" s="48" t="s">
         <v>19</v>
@@ -1750,16 +1752,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="T3" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="U3" s="23" t="s">
         <v>202</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1780,7 +1782,7 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="42" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H4" s="30">
         <v>2</v>
@@ -1789,7 +1791,7 @@
         <v>97</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>69</v>
@@ -1802,7 +1804,7 @@
         <v>62</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>19</v>
@@ -1811,16 +1813,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1841,7 +1843,7 @@
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="42" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1850,7 +1852,7 @@
         <v>94</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>69</v>
@@ -1863,7 +1865,7 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>19</v>
@@ -1872,16 +1874,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1902,7 +1904,7 @@
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="42" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -1931,16 +1933,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,7 +1963,7 @@
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="42" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
@@ -1970,7 +1972,7 @@
         <v>97</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K7" s="45" t="s">
         <v>69</v>
@@ -1983,7 +1985,7 @@
         <v>62</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>19</v>
@@ -1992,16 +1994,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="T7" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2042,7 +2044,7 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>19</v>
@@ -2088,7 +2090,7 @@
         <v>97</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>70</v>
@@ -2132,13 +2134,13 @@
         <v>102</v>
       </c>
       <c r="E10" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>192</v>
-      </c>
       <c r="G10" s="42" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2147,7 +2149,7 @@
         <v>94</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>69</v>
@@ -2160,7 +2162,7 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>19</v>
@@ -2169,16 +2171,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S10" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="U10" s="36" t="s">
         <v>202</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2195,13 +2197,13 @@
         <v>102</v>
       </c>
       <c r="E11" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>192</v>
-      </c>
       <c r="G11" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
@@ -2210,7 +2212,7 @@
         <v>97</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>69</v>
@@ -2230,16 +2232,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="T11" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="T11" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2260,7 +2262,7 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="42" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
@@ -2269,7 +2271,7 @@
         <v>97</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K12" s="45" t="s">
         <v>69</v>
@@ -2289,16 +2291,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="S12" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="T12" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="U12" s="36" t="s">
         <v>156</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2328,7 +2330,7 @@
         <v>94</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>70</v>
@@ -2385,7 +2387,7 @@
         <v>94</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>70</v>
@@ -2499,7 +2501,7 @@
         <v>94</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>70</v>
@@ -2604,7 +2606,7 @@
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="42" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -2613,7 +2615,7 @@
         <v>97</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>70</v>
@@ -2657,11 +2659,11 @@
         <v>121</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
@@ -2670,7 +2672,7 @@
         <v>94</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>69</v>
@@ -2683,7 +2685,7 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P19" s="46" t="s">
         <v>19</v>
@@ -2692,16 +2694,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S19" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2718,11 +2720,11 @@
         <v>121</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
@@ -2731,7 +2733,7 @@
         <v>97</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>70</v>
@@ -2779,7 +2781,7 @@
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="42" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
@@ -2788,7 +2790,7 @@
         <v>97</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>69</v>
@@ -2808,16 +2810,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2849,7 +2851,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>70</v>
@@ -2956,7 +2958,7 @@
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
@@ -2965,7 +2967,7 @@
         <v>94</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K24" s="45" t="s">
         <v>70</v>
@@ -3013,7 +3015,7 @@
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="42" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
@@ -3022,7 +3024,7 @@
         <v>97</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K25" s="45" t="s">
         <v>69</v>
@@ -3035,7 +3037,7 @@
         <v>23</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P25" s="46" t="s">
         <v>20</v>
@@ -3044,16 +3046,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="S25" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="S25" s="28" t="s">
+      <c r="T25" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="U25" s="37" t="s">
         <v>156</v>
-      </c>
-      <c r="T25" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="U25" s="37" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3083,7 +3085,7 @@
         <v>97</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K26" s="45" t="s">
         <v>70</v>
@@ -3107,7 +3109,7 @@
         <v>93</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U26" s="37" t="s">
         <v>123</v>
@@ -3124,12 +3126,12 @@
         <v>92</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="39"/>
       <c r="G27" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
@@ -3138,7 +3140,7 @@
         <v>97</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K27" s="45" t="s">
         <v>70</v>
@@ -3162,7 +3164,7 @@
         <v>93</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U27" s="37" t="s">
         <v>123</v>
@@ -3179,12 +3181,12 @@
         <v>92</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="39"/>
       <c r="G28" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3193,7 +3195,7 @@
         <v>97</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K28" s="45" t="s">
         <v>70</v>
@@ -3217,7 +3219,7 @@
         <v>93</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U28" s="37" t="s">
         <v>123</v>
@@ -3234,12 +3236,12 @@
         <v>92</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="39"/>
       <c r="G29" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
@@ -3248,7 +3250,7 @@
         <v>97</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" s="45" t="s">
         <v>70</v>
@@ -3272,7 +3274,7 @@
         <v>93</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U29" s="37" t="s">
         <v>123</v>
@@ -3289,12 +3291,12 @@
         <v>92</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="39"/>
       <c r="G30" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
@@ -3303,7 +3305,7 @@
         <v>97</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K30" s="45" t="s">
         <v>70</v>
@@ -3327,7 +3329,7 @@
         <v>106</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U30" s="37" t="s">
         <v>107</v>
@@ -3344,12 +3346,12 @@
         <v>92</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="39"/>
       <c r="G31" s="42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
@@ -3358,7 +3360,7 @@
         <v>97</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K31" s="45" t="s">
         <v>69</v>
@@ -3389,12 +3391,12 @@
         <v>92</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="39"/>
       <c r="G32" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
@@ -3403,7 +3405,7 @@
         <v>97</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K32" s="45" t="s">
         <v>69</v>
@@ -3423,16 +3425,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S32" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="T32" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="T32" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3446,12 +3448,12 @@
         <v>92</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="39"/>
       <c r="G33" s="42" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H33" s="30">
         <v>31</v>
@@ -3460,7 +3462,7 @@
         <v>97</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K33" s="45" t="s">
         <v>69</v>
@@ -3480,25 +3482,20 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S33" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S33" s="11" t="s">
+      <c r="T33" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="T33" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3514,6 +3511,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4279,7 +4281,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H3" s="19"/>
     </row>
@@ -4301,7 +4303,7 @@
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -4323,7 +4325,7 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -4345,10 +4347,10 @@
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4369,10 +4371,10 @@
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4393,10 +4395,10 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4417,10 +4419,10 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4441,10 +4443,10 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4465,10 +4467,10 @@
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4489,10 +4491,10 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4515,10 +4517,10 @@
         <v>126</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4541,10 +4543,10 @@
         <v>126</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4567,10 +4569,10 @@
         <v>126</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4593,10 +4595,10 @@
         <v>126</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4617,10 +4619,10 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/ESCALETA_CN_08_06_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion06\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14370" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="ESCALETA" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="239">
   <si>
     <t>Asignatura</t>
   </si>
@@ -335,9 +330,6 @@
   </si>
   <si>
     <t>Los cromosomas</t>
-  </si>
-  <si>
-    <t>Interactivo con animación incluida que presenta la estructura del cromosoma y su proceso de condensación durante la división celular</t>
   </si>
   <si>
     <t>4º ESO</t>
@@ -644,9 +636,6 @@
     <t xml:space="preserve">Interactivo que explica qué es la genética (primera imagen del menú) y por qué es importante (segunda imagen del menú). Se debe hablar del ADN. Al final de la exposición un recurso M que relaciona términos </t>
   </si>
   <si>
-    <t xml:space="preserve">Hacer una animación explicando qué son los cromosomas. Es algo similar a lo que se ve en el video que se eencuentra en la siguiente página: http://www.areaciencias.com/biologia/cromosomas.html  Hay más indicaciones en el cuaderno de estudio; preguntar por eso. </t>
-  </si>
-  <si>
     <t>Actividad para consolidar conceptos acerca de las características de los cromosomas</t>
   </si>
   <si>
@@ -786,6 +775,21 @@
   </si>
   <si>
     <t>Refuerza tu aprendizaje: La herencia y el ambiente</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta la estructura del cromosoma y su proceso de condensación durante la división celular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer una presentación explicando qué son los cromosomas y cómo se condensan y desenrrolan según la necesidad. </t>
+  </si>
+  <si>
+    <t>Recurso F4-02</t>
+  </si>
+  <si>
+    <t>Cambiar el acento</t>
+  </si>
+  <si>
+    <t>Cambiar acento. La primera frase del audio cambia de La genética es la ciencia que estudia la transmisión de los caracteres morfológicos y biológicos que pasan de generación en generación” a "La genética es la ciencia que estudia la transmisión de los caracteres biológicos que pasan de generación en generación”</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1585,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1747,7 @@
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P3" s="48" t="s">
         <v>19</v>
@@ -1752,16 +1756,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="U3" s="23" t="s">
         <v>200</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1782,7 +1786,7 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H4" s="30">
         <v>2</v>
@@ -1791,7 +1795,7 @@
         <v>97</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>69</v>
@@ -1804,7 +1808,7 @@
         <v>62</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>19</v>
@@ -1813,16 +1817,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1843,7 +1847,7 @@
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1852,7 +1856,7 @@
         <v>94</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>69</v>
@@ -1865,7 +1869,7 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>19</v>
@@ -1874,16 +1878,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S5" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1904,7 +1908,7 @@
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -1933,16 +1937,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,7 +1967,7 @@
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
@@ -1972,7 +1976,7 @@
         <v>97</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K7" s="45" t="s">
         <v>69</v>
@@ -1985,7 +1989,7 @@
         <v>62</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>19</v>
@@ -1994,16 +1998,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="T7" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2031,38 +2035,38 @@
         <v>94</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="8" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="49" t="s">
-        <v>104</v>
+      <c r="Q8" s="49">
+        <v>6</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2081,7 +2085,7 @@
       <c r="E9" s="29"/>
       <c r="F9" s="39"/>
       <c r="G9" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
@@ -2090,7 +2094,7 @@
         <v>97</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>70</v>
@@ -2105,19 +2109,19 @@
         <v>19</v>
       </c>
       <c r="Q9" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="S9" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="T9" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2134,13 +2138,13 @@
         <v>102</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2149,7 +2153,7 @@
         <v>94</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>69</v>
@@ -2162,7 +2166,7 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>19</v>
@@ -2171,16 +2175,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S10" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="U10" s="36" t="s">
         <v>200</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2197,13 +2201,13 @@
         <v>102</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
@@ -2212,7 +2216,7 @@
         <v>97</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>69</v>
@@ -2232,16 +2236,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="T11" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="T11" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2262,7 +2266,7 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
@@ -2271,7 +2275,7 @@
         <v>97</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K12" s="45" t="s">
         <v>69</v>
@@ -2291,16 +2295,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="S12" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="T12" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="U12" s="36" t="s">
         <v>155</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2314,14 +2318,14 @@
         <v>92</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="30">
         <v>11</v>
@@ -2330,7 +2334,7 @@
         <v>94</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>70</v>
@@ -2340,24 +2344,26 @@
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="P13" s="46" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="S13" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="T13" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="U13" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="T13" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2371,14 +2377,14 @@
         <v>92</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="30">
         <v>12</v>
@@ -2387,7 +2393,7 @@
         <v>94</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>70</v>
@@ -2397,24 +2403,26 @@
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="O14" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="P14" s="46" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="R14" s="27" t="s">
+      <c r="S14" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="T14" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="U14" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="T14" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="U14" s="36" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,14 +2436,14 @@
         <v>92</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
@@ -2444,7 +2452,7 @@
         <v>97</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>70</v>
@@ -2459,19 +2467,19 @@
         <v>19</v>
       </c>
       <c r="Q15" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="S15" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="S15" s="28" t="s">
+      <c r="T15" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="37" t="s">
         <v>106</v>
-      </c>
-      <c r="T15" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="U15" s="37" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2485,14 +2493,14 @@
         <v>92</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
@@ -2501,7 +2509,7 @@
         <v>94</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>70</v>
@@ -2516,19 +2524,19 @@
         <v>19</v>
       </c>
       <c r="Q16" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="R16" s="28" t="s">
+      <c r="S16" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="T16" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="U16" s="37" t="s">
         <v>106</v>
-      </c>
-      <c r="T16" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="U16" s="37" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2542,14 +2550,14 @@
         <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
@@ -2558,7 +2566,7 @@
         <v>97</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>70</v>
@@ -2573,19 +2581,19 @@
         <v>19</v>
       </c>
       <c r="Q17" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="R17" s="28" t="s">
+      <c r="S17" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="S17" s="28" t="s">
+      <c r="T17" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="U17" s="37" t="s">
         <v>106</v>
-      </c>
-      <c r="T17" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="U17" s="37" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2599,14 +2607,14 @@
         <v>92</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>100</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -2615,7 +2623,7 @@
         <v>97</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>70</v>
@@ -2630,19 +2638,19 @@
         <v>19</v>
       </c>
       <c r="Q18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2656,14 +2664,14 @@
         <v>92</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
@@ -2672,7 +2680,7 @@
         <v>94</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>69</v>
@@ -2685,7 +2693,7 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P19" s="46" t="s">
         <v>19</v>
@@ -2694,16 +2702,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S19" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2717,14 +2725,14 @@
         <v>92</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
@@ -2733,7 +2741,7 @@
         <v>97</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>70</v>
@@ -2748,19 +2756,19 @@
         <v>19</v>
       </c>
       <c r="Q20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>93</v>
       </c>
       <c r="T20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2774,14 +2782,14 @@
         <v>92</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>96</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
@@ -2790,7 +2798,7 @@
         <v>97</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>69</v>
@@ -2810,16 +2818,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2833,16 +2841,16 @@
         <v>92</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="F22" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="G22" s="42" t="s">
         <v>126</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
@@ -2851,7 +2859,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>70</v>
@@ -2861,24 +2869,26 @@
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="O22" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="P22" s="46" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="S22" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2892,16 +2902,16 @@
         <v>92</v>
       </c>
       <c r="D23" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="F23" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>126</v>
-      </c>
       <c r="G23" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
@@ -2910,7 +2920,7 @@
         <v>97</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K23" s="45" t="s">
         <v>70</v>
@@ -2925,19 +2935,19 @@
         <v>19</v>
       </c>
       <c r="Q23" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R23" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="S23" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U23" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2951,14 +2961,14 @@
         <v>92</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
@@ -2967,7 +2977,7 @@
         <v>94</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K24" s="45" t="s">
         <v>70</v>
@@ -2982,19 +2992,19 @@
         <v>19</v>
       </c>
       <c r="Q24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R24" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>93</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3008,14 +3018,14 @@
         <v>92</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
@@ -3024,7 +3034,7 @@
         <v>97</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K25" s="45" t="s">
         <v>69</v>
@@ -3037,7 +3047,7 @@
         <v>23</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P25" s="46" t="s">
         <v>20</v>
@@ -3046,16 +3056,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="S25" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="S25" s="28" t="s">
+      <c r="T25" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="U25" s="37" t="s">
         <v>155</v>
-      </c>
-      <c r="T25" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="U25" s="37" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3069,14 +3079,14 @@
         <v>92</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>100</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
@@ -3085,7 +3095,7 @@
         <v>97</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K26" s="45" t="s">
         <v>70</v>
@@ -3100,19 +3110,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="R26" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="S26" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3126,12 +3136,12 @@
         <v>92</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="39"/>
       <c r="G27" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
@@ -3140,7 +3150,7 @@
         <v>97</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K27" s="45" t="s">
         <v>70</v>
@@ -3155,19 +3165,19 @@
         <v>19</v>
       </c>
       <c r="Q27" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="R27" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="S27" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3181,12 +3191,12 @@
         <v>92</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="39"/>
       <c r="G28" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3195,7 +3205,7 @@
         <v>97</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K28" s="45" t="s">
         <v>70</v>
@@ -3210,19 +3220,19 @@
         <v>19</v>
       </c>
       <c r="Q28" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R28" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="R28" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="S28" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3236,12 +3246,12 @@
         <v>92</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="39"/>
       <c r="G29" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
@@ -3250,7 +3260,7 @@
         <v>97</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K29" s="45" t="s">
         <v>70</v>
@@ -3265,19 +3275,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R29" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="R29" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="S29" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U29" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3291,12 +3301,12 @@
         <v>92</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="39"/>
       <c r="G30" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
@@ -3305,7 +3315,7 @@
         <v>97</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K30" s="45" t="s">
         <v>70</v>
@@ -3320,19 +3330,19 @@
         <v>19</v>
       </c>
       <c r="Q30" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R30" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="R30" s="28" t="s">
+      <c r="S30" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="S30" s="28" t="s">
+      <c r="T30" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="U30" s="37" t="s">
         <v>106</v>
-      </c>
-      <c r="T30" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="U30" s="37" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3346,12 +3356,12 @@
         <v>92</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="39"/>
       <c r="G31" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
@@ -3360,7 +3370,7 @@
         <v>97</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K31" s="45" t="s">
         <v>69</v>
@@ -3391,12 +3401,12 @@
         <v>92</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="39"/>
       <c r="G32" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
@@ -3405,7 +3415,7 @@
         <v>97</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K32" s="45" t="s">
         <v>69</v>
@@ -3425,16 +3435,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S32" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="T32" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="T32" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3448,12 +3458,12 @@
         <v>92</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="39"/>
       <c r="G33" s="42" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H33" s="30">
         <v>31</v>
@@ -3462,7 +3472,7 @@
         <v>97</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K33" s="45" t="s">
         <v>69</v>
@@ -3482,20 +3492,25 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S33" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="S33" s="11" t="s">
+      <c r="T33" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="T33" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3511,11 +3526,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4281,7 +4291,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" s="19"/>
     </row>
@@ -4303,7 +4313,7 @@
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -4318,14 +4328,14 @@
         <v>92</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -4340,17 +4350,17 @@
         <v>92</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4364,17 +4374,17 @@
         <v>92</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4388,17 +4398,17 @@
         <v>92</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4412,17 +4422,17 @@
         <v>92</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4436,17 +4446,17 @@
         <v>92</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4460,17 +4470,17 @@
         <v>92</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4484,17 +4494,17 @@
         <v>92</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4508,19 +4518,19 @@
         <v>92</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>126</v>
-      </c>
       <c r="G13" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4534,19 +4544,19 @@
         <v>92</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>126</v>
-      </c>
       <c r="G14" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4560,19 +4570,19 @@
         <v>92</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="51" t="s">
-        <v>126</v>
-      </c>
       <c r="G15" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4586,19 +4596,19 @@
         <v>92</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>126</v>
-      </c>
       <c r="G16" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4612,17 +4622,17 @@
         <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
